--- a/src/test/resources/files/User_Management_Security.xlsx
+++ b/src/test/resources/files/User_Management_Security.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZoneTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smhassan\IdeaProjects\JmsPlay\src\test\resources\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7350" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7350" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="loginLogoutCorrectData_1" sheetId="1" r:id="rId1"/>
     <sheet name="loginLogoutINCorrectData_2" sheetId="2" r:id="rId2"/>
+    <sheet name="CheckForwardBackAfterLogout3" sheetId="3" r:id="rId3"/>
+    <sheet name="CheckWithWrongPreviousPassword4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Uname</t>
   </si>
@@ -46,16 +48,88 @@
   </si>
   <si>
     <t>InPWD</t>
+  </si>
+  <si>
+    <t>empName</t>
+  </si>
+  <si>
+    <t>Dexter</t>
+  </si>
+  <si>
+    <t>EmpId</t>
+  </si>
+  <si>
+    <t>designation</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>depart</t>
+  </si>
+  <si>
+    <t>pub</t>
+  </si>
+  <si>
+    <t>access</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>mail</t>
+  </si>
+  <si>
+    <t>Product Tester</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Journals</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>LaTeX Executive</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Demon@hmail.com</t>
+  </si>
+  <si>
+    <t>WrongOldPass</t>
+  </si>
+  <si>
+    <t>NewPass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -78,13 +152,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -366,7 +447,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,7 +483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -448,4 +529,131 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>7000</v>
+      </c>
+      <c r="B2">
+        <v>7000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>1212</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2">
+        <v>7897</v>
+      </c>
+      <c r="K2">
+        <v>2121</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+</worksheet>
 </file>
--- a/src/test/resources/files/User_Management_Security.xlsx
+++ b/src/test/resources/files/User_Management_Security.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7350" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7350" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="loginLogoutCorrectData_1" sheetId="1" r:id="rId1"/>
     <sheet name="loginLogoutINCorrectData_2" sheetId="2" r:id="rId2"/>
     <sheet name="CheckForwardBackAfterLogout3" sheetId="3" r:id="rId3"/>
     <sheet name="CheckWithWrongPreviousPassword4" sheetId="4" r:id="rId4"/>
+    <sheet name="new" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -566,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,4 +657,46 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>